--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -78,10 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,41 +385,40 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="9" max="9" width="4.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -480,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -510,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -540,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -570,7 +568,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -600,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,6 +617,9 @@
       <c r="F8">
         <v>0.1</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -627,8 +628,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="1"/>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>SUM(B2:B8)</f>
+        <v>1.4</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:H9" si="1">SUM(C2:C8)</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
